--- a/xls2conf/template2.xlsx
+++ b/xls2conf/template2.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="_output" sheetId="1" r:id="rId1"/>
-    <sheet name="_conf" sheetId="2" r:id="rId2"/>
+    <sheet name="_output2" sheetId="3" r:id="rId1"/>
+    <sheet name="_output" sheetId="1" r:id="rId2"/>
+    <sheet name="_conf" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>type</t>
   </si>
@@ -69,6 +70,14 @@
   </si>
   <si>
     <t>中文中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +124,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,56 +446,58 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="17" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -499,6 +513,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
